--- a/Outstanding.xlsx
+++ b/Outstanding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="85">
   <si>
     <t>Sr. No</t>
   </si>
@@ -263,6 +263,24 @@
   </si>
   <si>
     <t>Invoice no - b23-24MQ106</t>
+  </si>
+  <si>
+    <t>Credit Period - 126 Days</t>
+  </si>
+  <si>
+    <t>Interest @ 15% per annum - 1134</t>
+  </si>
+  <si>
+    <t>Total Pending amount to be paid - 23034.8/-</t>
+  </si>
+  <si>
+    <t>Interest @ 15% per annum - 1242</t>
+  </si>
+  <si>
+    <t>Credit Period - 138 Days</t>
+  </si>
+  <si>
+    <t>Total Pending amount to be paid - 23142.8/-</t>
   </si>
 </sst>
 </file>
@@ -566,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -704,6 +722,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -746,6 +770,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -772,9 +799,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1129,23 +1153,23 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="13.8" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="9">
         <v>24800</v>
       </c>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="1">
         <f>D2+D3-E4</f>
         <v>20252.399999999994</v>
@@ -1225,11 +1249,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="13">
         <f>SUM(D2:D3)</f>
         <v>45052.399999999994</v>
@@ -1286,11 +1310,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="20">
         <f>SUM(D7:D7)</f>
         <v>24800</v>
@@ -1302,37 +1326,37 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="14">
         <f>(D4*15%)*222/365</f>
         <v>4110.2600547945194</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.8" customHeight="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="23">
         <f>SUM(F8:F9)</f>
         <v>4945.98608219178</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="24">
         <f>F10+Sheet1!F5</f>
         <v>25198.386082191773</v>
@@ -1472,11 +1496,11 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="22">
         <f>SUM(D9:D9)</f>
         <v>21122</v>
@@ -1488,26 +1512,26 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="14">
         <f>(D1*15%)*118/365</f>
         <v>1024.2723287671231</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="29">
         <f>F11+E1</f>
         <v>22146.272328767122</v>
@@ -1614,520 +1638,520 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="70">
+      <c r="A2" s="63">
         <v>42795</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62">
         <v>3424184</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="70"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="62">
         <v>3124184</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62">
         <v>374902.8</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="62">
         <v>374902.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="70">
+      <c r="A6" s="63">
         <v>43160</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62">
         <v>3499086.8</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="70"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60">
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62">
         <v>3499086.8</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="62">
         <v>419890.32</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="62">
         <v>384899.46</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="60"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62">
         <v>3883986.26</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:8" ht="84.6" customHeight="1">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60">
+      <c r="C12" s="61"/>
+      <c r="D12" s="62">
         <v>1500000</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="70">
+      <c r="A14" s="63">
         <v>43862</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="62">
         <v>1624184</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62">
         <v>194902.08</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="62">
         <v>194902.08</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="70"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="70">
+      <c r="A16" s="63">
         <v>44044</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60">
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62">
         <v>1819086.08</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="62">
         <v>218290.3296</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="62">
         <v>109145.1648</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="70"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62">
         <v>1928231.2448</v>
       </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:8" ht="27" customHeight="1">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60">
+      <c r="C22" s="61"/>
+      <c r="D22" s="62">
         <v>500000</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="62">
         <v>1124184</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60">
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62">
         <v>134902.07999999999</v>
       </c>
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="60">
+      <c r="H24" s="62">
         <v>56209.2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="70">
+      <c r="A26" s="63">
         <v>44197</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60">
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62">
         <v>1180393.2</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="70"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
     </row>
     <row r="30" spans="1:8" ht="63.6" customHeight="1">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60">
+      <c r="C30" s="61"/>
+      <c r="D30" s="62">
         <v>400000</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60" t="s">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="60">
+      <c r="C32" s="62">
         <v>724184</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60">
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62">
         <v>86902.080000000002</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="60">
+      <c r="H32" s="62">
         <v>65176.56</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="59"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="70">
+      <c r="A34" s="63">
         <v>44440</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60">
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62">
         <v>789360.56</v>
       </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="60">
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="70"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="62"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="60" t="s">
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="60" t="s">
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="62" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="60"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60">
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62">
         <v>724184</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="60">
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="62">
         <v>1185235.2648</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="60"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="62"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60" t="s">
+      <c r="A40" s="61"/>
+      <c r="B40" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="61">
+      <c r="C40" s="64">
         <v>1909419.2648</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="63"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="66"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="59"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="66"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="69"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="27" t="s">
@@ -2180,17 +2204,157 @@
       <c r="F48" s="33"/>
     </row>
     <row r="49" spans="1:6" ht="14.4">
-      <c r="A49" s="67" t="s">
+      <c r="A49" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="69"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="156">
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:H41"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A4:A5"/>
@@ -2207,146 +2371,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:H41"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2356,28 +2380,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="41" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="41" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="9" style="41" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="41" customWidth="1"/>
     <col min="4" max="4" width="41.6640625" style="41" customWidth="1"/>
     <col min="5" max="5" width="12.21875" style="41" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="37.799999999999997" customHeight="1">
       <c r="A2" s="38" t="s">
@@ -2460,13 +2484,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
     </row>
     <row r="10" spans="1:5" ht="26.4">
       <c r="A10" s="38" t="s">
@@ -2523,7 +2547,7 @@
         <v>295876</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="26.4">
+    <row r="13" spans="1:5">
       <c r="A13" s="40" t="s">
         <v>68</v>
       </c>
@@ -2560,16 +2584,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.21875" customWidth="1"/>
     <col min="6" max="6" width="22.44140625" customWidth="1"/>
@@ -2617,11 +2641,11 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="37">
         <f>SUM(D2:D2)</f>
         <v>21900.799999999999</v>
@@ -2633,37 +2657,37 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="14" t="e">
         <f>(#REF!*15%)*222/365</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="23" t="e">
         <f>SUM(F3:F4)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="36" t="e">
         <f>F5+Sheet1!#REF!</f>
         <v>#REF!</v>
@@ -2777,11 +2801,11 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="46">
         <f>SUM(D15:D15)</f>
         <v>21900.799999999999</v>
@@ -2793,26 +2817,26 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="14">
         <f>F16+D16</f>
         <v>22548.823671232876</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="29">
         <f>D16+F15</f>
         <v>22548.823671232876</v>
@@ -2866,15 +2890,265 @@
         <v>22548.823671232876</v>
       </c>
     </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="14">
+        <v>1</v>
+      </c>
+      <c r="B36" s="21">
+        <v>45034</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="8">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="E36" s="14">
+        <v>126</v>
+      </c>
+      <c r="F36" s="14">
+        <f>(D36*15%)*E36/365</f>
+        <v>1134.0414246575342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="47">
+        <f>SUM(D36:D36)</f>
+        <v>21900.799999999999</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14">
+        <f>SUM(F36:F36)</f>
+        <v>1134.0414246575342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="14">
+        <f>F37+D37</f>
+        <v>23034.841424657534</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="21">
+      <c r="A39" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="29">
+        <f>D37+F36</f>
+        <v>23034.841424657534</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <f>21900.8*15%</f>
+        <v>3285.12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <f>A49*72/365</f>
+        <v>648.02367123287672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <f>A50+21900.8</f>
+        <v>22548.823671232876</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="14">
+        <v>1</v>
+      </c>
+      <c r="B57" s="21">
+        <v>45034</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="8">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="E57" s="14">
+        <v>138</v>
+      </c>
+      <c r="F57" s="14">
+        <f>(D57*15%)*E57/365</f>
+        <v>1242.0453698630138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="48">
+        <f>SUM(D57:D57)</f>
+        <v>21900.799999999999</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14">
+        <f>SUM(F57:F57)</f>
+        <v>1242.0453698630138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="14">
+        <f>F58+D58</f>
+        <v>23142.845369863015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="21">
+      <c r="A60" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="29">
+        <f>D58+F57</f>
+        <v>23142.845369863015</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
+  <mergeCells count="13">
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A60:E60"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
